--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_216.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_216.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,403 +488,416 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_135</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(4.74, 8.62)]</t>
+          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[('0:00:30.160000', '0:00:44.080000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:43', '0:02:02.840000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.425</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(99.6, 111.62), (46.52, 48.94)]</t>
+          <t>[['D/5', 'A', 'D'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(25.48, 32.8), (74.5, 80.42)]</t>
+          <t>[('0:02:20.580000', '0:02:23.320000'), ('0:02:18.020000', '0:02:22.340000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:27.963197', '0:00:34.290634'), ('0:00:28.450816', '0:00:36.229501')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(40.38, 42.28)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:56.720000', '0:00:58.880000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:02.360000', '0:00:11.660000'), ('0:01:00.040000', '0:01:07.080000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>isophonics_282</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_219</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2363636363636364</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['G:min/5', 'F/5', 'Eb/5']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14), (36.6, 39.0)]</t>
+          <t>[['B:min', 'A', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (65.26, 71.04)]</t>
+          <t>[('0:00:05.907800', '0:00:09.297913')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:10.712128', '0:01:15.058526')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_197</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_265</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3752913752913753</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D', 'E', 'A', 'F#:min', 'D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['D', 'E', 'A', 'F#:min', 'D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.36, 5.6)]</t>
+          <t>[('0:00:16.088141', '0:00:43.313538')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:05.130361', '0:00:17.574216')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>isophonics_277</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.07307692307692308</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(9.48, 25.94)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(2.58, 7.08)]</t>
+          <t>[('0:00:32.920657', '0:00:39.410634')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:18.320000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(1.36, 24.16)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.7, 21.42)]</t>
+          <t>[('0:00:00.220000', '0:00:05.020000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:00:12.820000', '0:00:24.900000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>schubert-winterreise_47</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.1348837209302326</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(36.82, 38.82), (36.52, 38.28), (9.26, 13.9)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(10.76, 23.6), (47.14, 55.2), (0.36, 5.6)]</t>
+          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.360000', '0:00:05.600000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
@@ -888,317 +906,270 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86)]</t>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(46.52, 48.94)]</t>
+          <t>[('0:00:02.860000', '0:00:05.300000'), ('0:00:00.380000', '0:00:03.700000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:14.100000', '0:01:20.040000'), ('0:00:25.480000', '0:00:32.580000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_123</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7413793103448276</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(2.36, 7.56)]</t>
+          <t>[['E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(13.52, 25.4)]</t>
+          <t>[('0:02:13.919000', '0:02:27.191000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:40.074104', '0:00:54.168616')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(31.74, 33.88)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(38.9, 44.36)]</t>
+          <t>[('0:01:19.120000', '0:01:39.320000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:30.780000', '0:01:53.600000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(7.8, 13.9)]</t>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_238</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.09855072463768116</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:dim7', 'C', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:dim7', 'C:maj', 'F:maj/A']]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'E:7', 'A:maj', 'C#:7/G#', 'G:(3,5)', 'B:maj', 'G#:(3,5,b7,b9)', 'C#:min/F#', 'E:maj/F#', 'F#:7', 'B:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(17.769637, 22.996281)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(18.32, 21.08)]</t>
+          <t>[('0:00:00.320000', '0:00:40.640000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(3.1, 5.58), (0.5, 3.9)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(80.2, 86.86), (26.2, 33.96)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:01.460000', '0:00:39.820000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
